--- a/Proyecto/Comparativa_Generaciones_Poblacion_Grandes.xlsx
+++ b/Proyecto/Comparativa_Generaciones_Poblacion_Grandes.xlsx
@@ -457,72 +457,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="B3" t="n">
         <v>400</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>220</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="B4" t="n">
         <v>600</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>334</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="B5" t="n">
         <v>800</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>443</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="B6" t="n">
         <v>1000</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>546</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
